--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -759,103 +759,103 @@
         <v>41599.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.49</v>
+        <v>2.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.31</v>
+        <v>4.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.57</v>
+        <v>4.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>58.18</v>
+        <v>5.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.17</v>
+        <v>2.72</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.85</v>
+        <v>2.08</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.31</v>
+        <v>2.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>264.34</v>
+        <v>26.43</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.67</v>
+        <v>4.87</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.99</v>
+        <v>3.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.84</v>
+        <v>5.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41599.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.57</v>
+        <v>2.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.18</v>
+        <v>4.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.48</v>
+        <v>3.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.04000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.12</v>
+        <v>2.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.34</v>
+        <v>2.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>252.15</v>
+        <v>25.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.15</v>
+        <v>4.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.01</v>
+        <v>3.2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.87</v>
+        <v>3.29</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>60.23</v>
+        <v>6.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41599.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.42</v>
+        <v>3.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.52</v>
+        <v>2.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>180.16</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>34.12</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>11.18</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>23.17</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.29</v>
+        <v>4.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41599.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.36</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41599.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>37.73</v>
+        <v>3.77</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.74</v>
+        <v>3.17</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>49.46</v>
+        <v>4.95</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>4.46</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>201.97</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>44.57</v>
-      </c>
       <c r="AG7" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41599.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>31.95</v>
+        <v>3.19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>108.17</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.18</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.21</v>
+        <v>2.92</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41599.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.63</v>
+        <v>2.16</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>46.87</v>
+        <v>4.69</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>39.14</v>
+        <v>3.91</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>63.88</v>
+        <v>6.39</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>26.2</v>
+        <v>2.62</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.3</v>
+        <v>2.43</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>251.24</v>
+        <v>25.12</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>47.28</v>
+        <v>4.73</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>32.07</v>
+        <v>3.21</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.66</v>
+        <v>3.17</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>57.9</v>
+        <v>5.79</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41599.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>37.51</v>
+        <v>3.75</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>31.36</v>
+        <v>3.14</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>54.4</v>
+        <v>5.44</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>199.76</v>
+        <v>19.98</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.94</v>
+        <v>3.79</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.74</v>
+        <v>2.57</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>49.46</v>
+        <v>4.95</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41599.34027777778</v>
+        <v>44848.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>16.43</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41599.34722222222</v>
+        <v>44848.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.73</v>
+        <v>3.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.16</v>
+        <v>2.39</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.82</v>
+        <v>4.14</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.72</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R3" s="4" t="n">
+      <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.28</v>
+        <v>3.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41599.35416666666</v>
+        <v>44848.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.16</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.6</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.62</v>
+        <v>2.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.95</v>
+        <v>1.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.7</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.6</v>
+        <v>3.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.61</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.43</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>6.02</v>
+        <v>2.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.94</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41599.36111111111</v>
+        <v>44848.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.41</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.34</v>
+        <v>1.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.85</v>
+        <v>0.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.98</v>
+        <v>1.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.89</v>
+        <v>0.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.41</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.45</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.4</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>4.53</v>
+        <v>1.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41599.36805555555</v>
+        <v>44848.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.26</v>
+        <v>5.7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.19</v>
+        <v>4.12</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.54</v>
+        <v>12.58</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.52</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.21</v>
+        <v>4.44</v>
       </c>
       <c r="H6" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="O6" s="4" t="n">
-        <v>0.21</v>
+        <v>4.51</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.32</v>
+        <v>6.33</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.18</v>
+        <v>3.97</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>2.58</v>
+        <v>61.33</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.62</v>
+        <v>12.63</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.19</v>
+        <v>4.16</v>
       </c>
       <c r="W6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="X6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.37</v>
+        <v>16.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.13</v>
+        <v>2.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41599.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41599.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41599.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41599.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41599.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>26.46</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>39.55</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>139.11</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>35.96</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.03</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44848.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44848.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.14</v>
+        <v>41.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>158.63</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44848.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.29</v>
+        <v>112.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>1.46</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44848.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44848.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>164.3</v>
@@ -715,43 +715,43 @@
         <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
@@ -759,22 +759,22 @@
         <v>44848.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.85</v>
+        <v>13.847</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.675</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.31</v>
+        <v>30.313</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.86</v>
+        <v>23.857</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.78</v>
+        <v>10.778</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>41.42</v>
@@ -783,79 +783,79 @@
         <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.56</v>
+        <v>10.561</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.059</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.83</v>
+        <v>12.833</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.3</v>
+        <v>15.301</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.436</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.63</v>
+        <v>158.632</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.5</v>
+        <v>30.504</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.46</v>
+        <v>10.461</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.067</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.48</v>
+        <v>20.483</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>12.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.07</v>
+        <v>38.071</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.53</v>
+        <v>5.532</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44848.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.01</v>
+        <v>10.014</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.197</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.089</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.99</v>
+        <v>21.988</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.33</v>
+        <v>17.333</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.79</v>
+        <v>7.794</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.18</v>
+        <v>32.182</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.27</v>
+        <v>5.268</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.65</v>
+        <v>7.649</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.765000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.35</v>
+        <v>9.351000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.537</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.104</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.85</v>
+        <v>112.852</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>22.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.59</v>
+        <v>14.592</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.61</v>
+        <v>7.615</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.456</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.47</v>
+        <v>15.468</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.831</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>6.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.051</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.53</v>
+        <v>29.528</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>3.998</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1063,110 +1063,6 @@
         <v>2.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44848.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>5.21</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,102 +967,206 @@
         <v>44848.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.7</v>
+        <v>5.698</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.06</v>
+        <v>4.059</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.583</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.750999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.42</v>
+        <v>4.418</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.94</v>
+        <v>19.938</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.99</v>
+        <v>2.987</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.26</v>
+        <v>4.255</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.01</v>
+        <v>5.011</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.37</v>
+        <v>5.375</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.453</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.512</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>6.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.03</v>
+        <v>4.026</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.36</v>
+        <v>61.356</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.73</v>
+        <v>12.731</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.164</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.325</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.394</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.152</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.4</v>
+        <v>18.397</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.25</v>
+        <v>2.248</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>5.207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44848.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.33</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>5.21</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_167.xlsx
+++ b/DATA_goal/Junction_Flooding_167.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,206 +967,102 @@
         <v>44848.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.698</v>
+        <v>5.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.059</v>
+        <v>4.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.583</v>
+        <v>12.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.750999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.418</v>
+        <v>4.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.938</v>
+        <v>19.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.981</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.987</v>
+        <v>2.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.255</v>
+        <v>4.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.011</v>
+        <v>5.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.375</v>
+        <v>5.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.453</v>
+        <v>1.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.512</v>
+        <v>4.51</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>6.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.026</v>
+        <v>4.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.356</v>
+        <v>61.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.731</v>
+        <v>12.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.164</v>
+        <v>4.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.325</v>
+        <v>4.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.394</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.678</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.152</v>
+        <v>5.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.397</v>
+        <v>18.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.248</v>
+        <v>2.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.207</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44848.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>5.21</v>
       </c>
     </row>
